--- a/biology/Médecine/Erwin_Giesing/Erwin_Giesing.xlsx
+++ b/biology/Médecine/Erwin_Giesing/Erwin_Giesing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erwin Giesing, né à Oberhausen le 7 décembre 1907 et mort à Krefeld le 22 mai 1977, est un médecin oto-rhino-laryngologiste allemand. Il est connu pour avoir été le médecin traitant d'Adolf Hitler.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir obtenu son diplôme d'études secondaires en 1926, Erwin Giesing étudie la médecine aux universités de Marburg, Düsseldorf et Cologne. Après avoir terminé ses études, il obtient son doctorat à Cologne en 1932.
 Il travaille ensuite comme médecin assistant à l'hôpital Rudolf Virchow à partir de 1929 et, après avoir terminé sa formation de spécialiste en médecine ORL en 1936, a travaillé comme spécialiste dans cette clinique jusqu'en 1939.
@@ -519,12 +533,82 @@
 Il était également membre de la S.A., dans laquelle il a atteint le grade de SA-Sturmbannführer.
 Après le début de la Seconde Guerre Mondiale, il fait son service militaire dans la Wehrmacht et travaille dans plusieurs Hôpitaux militaires, a partir de 1940, comme médecin-chef de réserve.
 Puis il devient médecin-chef de la Luftwaffe.
-Attentat du 20 Juillet 1944
-Après au moins six tentatives échouées de tuer Adolf Hitler, Claus von Stauffenberg décide de commettre un attentat contre lui lors d'une conférence le 20 juillet 1944. Son projet est de liquider dans le même temps Goering et Himmler.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Erwin_Giesing</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erwin_Giesing</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Attentat du 20 Juillet 1944</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après au moins six tentatives échouées de tuer Adolf Hitler, Claus von Stauffenberg décide de commettre un attentat contre lui lors d'une conférence le 20 juillet 1944. Son projet est de liquider dans le même temps Goering et Himmler.
 Stauffenberg, qui n'avait encore jamais rencontré Hitler, apporte la bombe dans une mallette qu'il place au sol avant de s'absenter pour un appel.
 La bombe explose et tue quatre personnes, blessant sévèrement Hitler au bras droit.
-Examen médical à la suite de l'attentat
-Le secrétaire d’Hitler, Traudl Junge, auteur de To The Last Hour: Hitler's Last Secretary (2002), commenta à ce sujet : « Bien qu'il se sentait indemne, Hitler fit appel à un spécialiste ORL de Berlin, parce que son audition lui causait des troubles et des maux de tête. » 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Erwin_Giesing</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erwin_Giesing</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Examen médical à la suite de l'attentat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le secrétaire d’Hitler, Traudl Junge, auteur de To The Last Hour: Hitler's Last Secretary (2002), commenta à ce sujet : « Bien qu'il se sentait indemne, Hitler fit appel à un spécialiste ORL de Berlin, parce que son audition lui causait des troubles et des maux de tête. » 
 Erwin Giesing est donc appelé au « quartier général du Führer Wolfsschanze » pour soigner les blessures à l'oreille d'Adolf Hitler.
 Le docteur Giesing découvrit que l'un de ses tympans avait explosé et l'autre était endommagé.
 Giesing indiqua plus tard [a] qu'Hitler n'était pas un « homme puissant et craint » avec une personnalité « fascinante » ou même « hypnotique ».
@@ -534,8 +618,43 @@
 Heinrich Himmler avertit Hitler qu'il était en danger de se faire empoisonner par ses docteurs. Après que les médecins accompagnateurs d'Hitler Karl Brandt et Hanskarl von Hasselbach eurent critiqué les pratiques de traitement de son médecin personnel Theo Morell, Giesing, en tant qu'initiateur de la dispute des médecins, fut démis de ses fonctions de médecin accompagnateur aux côtés de Brandt et Hasselbach début octobre 1944.
 Ils furent remplacés sur recommandation de Himmler par le physicien SS Dr Ludwig Stumpfegger.
 Linge, le valet d’Hitler, souligna : « Hitler n'acceptait des médicaments que venant de moi. Sa méfiance devenait excessive. Depuis le début d'octobre, il pouvait entendre la teneur de propos murmurés à cinq ou six pas de distance, mais cela ne soulageait en rien ses soupçons, ce qui rendait la vie de tous infernale. Si je n'avais pas eu les nerfs solides, j'aurais eu du mal a gérer tout cela. »
-Après-guerre
-Après la fin de la guerre, il fut arrêté par l'armée des États-Unis et interrogé à plusieurs reprises sur les maladies d'Hitler. Le 12 juin 1945, il soumit un « rapport sur le traitement » à Hitler à l'unité de renseignement militaire américaine et en novembre 1945 un autre rapport.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Erwin_Giesing</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erwin_Giesing</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Après-guerre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après la fin de la guerre, il fut arrêté par l'armée des États-Unis et interrogé à plusieurs reprises sur les maladies d'Hitler. Le 12 juin 1945, il soumit un « rapport sur le traitement » à Hitler à l'unité de renseignement militaire américaine et en novembre 1945 un autre rapport.
 En mars 1947, il est libéré. Il a ensuite rejoint sa famille à Krefeld, où il s'est établi comme médecin ORL.
 Il a ensuite donné des entrevues à des auteurs révisionnistes historiques tels que David Irving et Werner Maser, ainsi que des informations à la télévision sur les maladies d'Hitler, récits que les témoins et historiens contemporains qualifient parfois de peu crédibles.
 Il meurt à Krefeld le 22 mai 1977.
